--- a/Test_Cases.xlsx
+++ b/Test_Cases.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumenter\repos\CS\Test-Mini-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\School\Test\Test-Mini-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF433BA7-3984-492C-88CB-C39014C4F20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704E1848-EE05-4251-BA82-DA7FC992AC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7EE0AAEB-285A-45C6-B2D8-1E143EFB8A85}"/>
+    <workbookView xWindow="8190" yWindow="4185" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7EE0AAEB-285A-45C6-B2D8-1E143EFB8A85}"/>
   </bookViews>
   <sheets>
     <sheet name="Combi" sheetId="2" r:id="rId1"/>
     <sheet name="Desission Table" sheetId="1" r:id="rId2"/>
-    <sheet name="Border Value" sheetId="3" r:id="rId3"/>
-    <sheet name="Equvivalence class" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Border Value" sheetId="3" r:id="rId4"/>
+    <sheet name="Equvivalence class" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="73">
   <si>
     <t>P1</t>
   </si>
@@ -223,6 +224,39 @@
   </si>
   <si>
     <t>Invalid Period based on strat</t>
+  </si>
+  <si>
+    <t>SD in</t>
+  </si>
+  <si>
+    <t>ED in</t>
+  </si>
+  <si>
+    <t>Book room</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>8-10</t>
   </si>
 </sst>
 </file>
@@ -433,21 +467,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -473,26 +495,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -517,6 +521,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,7 +872,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,40 +882,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="9" t="s">
         <v>46</v>
       </c>
       <c r="L3" t="s">
@@ -886,22 +923,22 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="9" t="b">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="C4" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10" t="b">
+      <c r="C4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L4" t="s">
@@ -909,22 +946,22 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="11" t="b">
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10" t="b">
+      <c r="D5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="b">
         <v>1</v>
       </c>
       <c r="L5" t="s">
@@ -932,125 +969,125 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
       <c r="L6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="11" t="s">
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="9" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="11" t="s">
+      <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="D10" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="B11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="15" t="s">
+      <c r="B12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="12" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1082,35 +1119,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="17" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="1"/>
@@ -1129,13 +1166,13 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="6"/>
       <c r="G3" t="s">
         <v>16</v>
       </c>
@@ -1153,19 +1190,19 @@
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9" t="b">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10" t="b">
+      <c r="D4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="s">
@@ -1173,19 +1210,19 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="9" t="b">
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="10" t="b">
+      <c r="E5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="s">
@@ -1193,62 +1230,62 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="9" t="b">
+      <c r="C6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="10" t="b">
+      <c r="F6" s="6" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="11" t="s">
+      <c r="C8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="16" t="s">
+      <c r="C9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1267,6 +1304,114 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E491247A-70C2-47C9-AC65-AD09836C2FFA}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="34"/>
+      <c r="B1" s="34">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34">
+        <v>2</v>
+      </c>
+      <c r="D1" s="34">
+        <v>3</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B242A3-9FBB-4F6C-8D48-B9668F2DBB21}">
   <dimension ref="A1:I7"/>
   <sheetViews>
@@ -1287,35 +1432,35 @@
       <c r="A1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="33"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="28" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="17" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1323,20 +1468,20 @@
       <c r="A3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="29" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1344,39 +1489,39 @@
       <c r="A4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="30" t="s">
+      <c r="C4" s="31"/>
+      <c r="D4" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="9" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="15" t="b">
+      <c r="E5" s="11" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="16" t="b">
+      <c r="F5" s="11" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="19"/>
+      <c r="C7" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1391,11 +1536,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DEF327B-FD81-480C-8210-D5C9C25ECA0C}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>

--- a/Test_Cases.xlsx
+++ b/Test_Cases.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\School\Test\Test-Mini-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704E1848-EE05-4251-BA82-DA7FC992AC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D674CE5-60B9-454D-903C-20114EF8326E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8190" yWindow="4185" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7EE0AAEB-285A-45C6-B2D8-1E143EFB8A85}"/>
+    <workbookView xWindow="8190" yWindow="4185" windowWidth="29040" windowHeight="15840" xr2:uid="{7EE0AAEB-285A-45C6-B2D8-1E143EFB8A85}"/>
   </bookViews>
   <sheets>
-    <sheet name="Combi" sheetId="2" r:id="rId1"/>
-    <sheet name="Desission Table" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="Combi" sheetId="2" r:id="rId2"/>
+    <sheet name="Desission Table" sheetId="1" r:id="rId3"/>
     <sheet name="Border Value" sheetId="3" r:id="rId4"/>
     <sheet name="Equvivalence class" sheetId="4" r:id="rId5"/>
   </sheets>
@@ -467,9 +467,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -868,6 +871,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E491247A-70C2-47C9-AC65-AD09836C2FFA}">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35">
+        <v>2</v>
+      </c>
+      <c r="D1" s="35">
+        <v>3</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1B23D95-AEF1-4C52-A29E-67CA8234CA9B}">
   <dimension ref="A1:L12"/>
   <sheetViews>
@@ -882,40 +995,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>46</v>
       </c>
       <c r="L3" t="s">
@@ -923,22 +1036,22 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="b">
+      <c r="A4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="C4" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="b">
+      <c r="C4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L4" t="s">
@@ -946,22 +1059,22 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="7" t="b">
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="8" t="b">
         <v>0</v>
       </c>
-      <c r="D5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6" t="b">
+      <c r="D5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7" t="b">
         <v>1</v>
       </c>
       <c r="L5" t="s">
@@ -969,125 +1082,125 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
       <c r="L6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="9" t="s">
+      <c r="D10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="B11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="11" t="s">
+      <c r="B12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1099,7 +1212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1A0E9C-3383-4CC3-BE10-F1161BB8374B}">
   <dimension ref="B1:R11"/>
   <sheetViews>
@@ -1119,35 +1232,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27" t="s">
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="3"/>
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>14</v>
       </c>
       <c r="G2" s="1"/>
@@ -1166,13 +1279,13 @@
       <c r="R2" s="1"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
       <c r="G3" t="s">
         <v>16</v>
       </c>
@@ -1190,19 +1303,19 @@
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="b">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="D4" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6" t="b">
+      <c r="D4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="s">
@@ -1210,19 +1323,19 @@
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="5" t="b">
+      <c r="C5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6" t="b">
+      <c r="E5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="s">
@@ -1230,62 +1343,62 @@
       </c>
     </row>
     <row r="6" spans="2:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5" t="b">
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="F6" s="6" t="b">
+      <c r="F6" s="7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="C8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="12" t="s">
+      <c r="C9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1299,114 +1412,6 @@
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:M1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E491247A-70C2-47C9-AC65-AD09836C2FFA}">
-  <dimension ref="A1:I4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="34"/>
-      <c r="B1" s="34">
-        <v>1</v>
-      </c>
-      <c r="C1" s="34">
-        <v>2</v>
-      </c>
-      <c r="D1" s="34">
-        <v>3</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1432,35 +1437,35 @@
       <c r="A1" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="25" t="s">
+      <c r="C1" s="34"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="18" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="18" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1468,20 +1473,20 @@
       <c r="A3" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1489,39 +1494,39 @@
       <c r="A4" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="20" t="s">
+      <c r="C4" s="32"/>
+      <c r="D4" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="11" t="b">
+      <c r="E5" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="F5" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="12" t="b">
+      <c r="F5" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="13"/>
+      <c r="C7" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">
